--- a/Design/Excel/B2D_CollisionRelationConfig.xlsx
+++ b/Design/Excel/B2D_CollisionRelationConfig.xlsx
@@ -70,7 +70,7 @@
     <t>德莱厄斯Q技能碰撞</t>
   </si>
   <si>
-    <t>Darius_Q_CollisionHandler</t>
+    <t>DefaultCollisionHandler</t>
   </si>
   <si>
     <t>默认角色碰撞</t>
@@ -85,8 +85,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -711,16 +711,16 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Design/Excel/B2D_CollisionRelationConfig.xlsx
+++ b/Design/Excel/B2D_CollisionRelationConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22200" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,8 +85,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -711,16 +711,16 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
